--- a/notebooks/output/Dec_pop_hou_race.xlsx
+++ b/notebooks/output/Dec_pop_hou_race.xlsx
@@ -561,7 +561,7 @@
         <v>9554</v>
       </c>
       <c r="H2">
-        <v>12676</v>
+        <v>3169</v>
       </c>
       <c r="I2">
         <v>55959</v>
@@ -588,7 +588,7 @@
         <v>12864</v>
       </c>
       <c r="Q2">
-        <v>25080</v>
+        <v>6270</v>
       </c>
       <c r="R2">
         <v>51205</v>
@@ -620,7 +620,7 @@
         <v>61060</v>
       </c>
       <c r="H3">
-        <v>23020</v>
+        <v>5755</v>
       </c>
       <c r="I3">
         <v>47168</v>
@@ -647,7 +647,7 @@
         <v>68897</v>
       </c>
       <c r="Q3">
-        <v>37160</v>
+        <v>9290</v>
       </c>
       <c r="R3">
         <v>46170</v>
@@ -679,7 +679,7 @@
         <v>42558</v>
       </c>
       <c r="H4">
-        <v>26436</v>
+        <v>6609</v>
       </c>
       <c r="I4">
         <v>72676</v>
@@ -706,7 +706,7 @@
         <v>42702</v>
       </c>
       <c r="Q4">
-        <v>40820</v>
+        <v>10205</v>
       </c>
       <c r="R4">
         <v>78666</v>
@@ -738,7 +738,7 @@
         <v>38963</v>
       </c>
       <c r="H5">
-        <v>8572</v>
+        <v>2143</v>
       </c>
       <c r="I5">
         <v>12124</v>
@@ -765,7 +765,7 @@
         <v>33689</v>
       </c>
       <c r="Q5">
-        <v>13724</v>
+        <v>3431</v>
       </c>
       <c r="R5">
         <v>15624</v>
@@ -797,7 +797,7 @@
         <v>27543</v>
       </c>
       <c r="H6">
-        <v>22880</v>
+        <v>5720</v>
       </c>
       <c r="I6">
         <v>122034</v>
@@ -824,7 +824,7 @@
         <v>35544</v>
       </c>
       <c r="Q6">
-        <v>46272</v>
+        <v>11568</v>
       </c>
       <c r="R6">
         <v>119178</v>
@@ -856,7 +856,7 @@
         <v>3583</v>
       </c>
       <c r="H7">
-        <v>4948</v>
+        <v>1237</v>
       </c>
       <c r="I7">
         <v>43976</v>
@@ -883,7 +883,7 @@
         <v>5128</v>
       </c>
       <c r="Q7">
-        <v>13260</v>
+        <v>3315</v>
       </c>
       <c r="R7">
         <v>50595</v>
@@ -915,7 +915,7 @@
         <v>25337</v>
       </c>
       <c r="H8">
-        <v>11864</v>
+        <v>2966</v>
       </c>
       <c r="I8">
         <v>22843</v>
@@ -942,7 +942,7 @@
         <v>24112</v>
       </c>
       <c r="Q8">
-        <v>17008</v>
+        <v>4252</v>
       </c>
       <c r="R8">
         <v>25743</v>
@@ -974,7 +974,7 @@
         <v>61336</v>
       </c>
       <c r="H9">
-        <v>8940</v>
+        <v>2235</v>
       </c>
       <c r="I9">
         <v>13302</v>
@@ -1001,7 +1001,7 @@
         <v>70334</v>
       </c>
       <c r="Q9">
-        <v>13864</v>
+        <v>3466</v>
       </c>
       <c r="R9">
         <v>12741</v>
@@ -1033,7 +1033,7 @@
         <v>22141</v>
       </c>
       <c r="H10">
-        <v>8028</v>
+        <v>2007</v>
       </c>
       <c r="I10">
         <v>12430</v>
@@ -1060,7 +1060,7 @@
         <v>33689</v>
       </c>
       <c r="Q10">
-        <v>16256</v>
+        <v>4064</v>
       </c>
       <c r="R10">
         <v>12916</v>
@@ -1092,7 +1092,7 @@
         <v>158903</v>
       </c>
       <c r="H11">
-        <v>19884</v>
+        <v>4971</v>
       </c>
       <c r="I11">
         <v>32375</v>
@@ -1119,7 +1119,7 @@
         <v>173614</v>
       </c>
       <c r="Q11">
-        <v>32148</v>
+        <v>8037</v>
       </c>
       <c r="R11">
         <v>28463</v>
@@ -1151,7 +1151,7 @@
         <v>1790</v>
       </c>
       <c r="H12">
-        <v>2420</v>
+        <v>605</v>
       </c>
       <c r="I12">
         <v>12209</v>
@@ -1178,7 +1178,7 @@
         <v>3185</v>
       </c>
       <c r="Q12">
-        <v>6956</v>
+        <v>1739</v>
       </c>
       <c r="R12">
         <v>18926</v>
@@ -1210,7 +1210,7 @@
         <v>47278</v>
       </c>
       <c r="H13">
-        <v>29436</v>
+        <v>7359</v>
       </c>
       <c r="I13">
         <v>91143</v>
@@ -1237,7 +1237,7 @@
         <v>56685</v>
       </c>
       <c r="Q13">
-        <v>46684</v>
+        <v>11671</v>
       </c>
       <c r="R13">
         <v>83706</v>
@@ -1269,7 +1269,7 @@
         <v>28010</v>
       </c>
       <c r="H14">
-        <v>18380</v>
+        <v>4595</v>
       </c>
       <c r="I14">
         <v>127933</v>
@@ -1296,7 +1296,7 @@
         <v>33411</v>
       </c>
       <c r="Q14">
-        <v>37952</v>
+        <v>9488</v>
       </c>
       <c r="R14">
         <v>117409</v>
@@ -1328,7 +1328,7 @@
         <v>457</v>
       </c>
       <c r="H15">
-        <v>488</v>
+        <v>122</v>
       </c>
       <c r="I15">
         <v>4117</v>
@@ -1355,7 +1355,7 @@
         <v>504</v>
       </c>
       <c r="Q15">
-        <v>1076</v>
+        <v>269</v>
       </c>
       <c r="R15">
         <v>3084</v>
@@ -1387,7 +1387,7 @@
         <v>68827</v>
       </c>
       <c r="H16">
-        <v>14916</v>
+        <v>3729</v>
       </c>
       <c r="I16">
         <v>18492</v>
@@ -1414,7 +1414,7 @@
         <v>76052</v>
       </c>
       <c r="Q16">
-        <v>26164</v>
+        <v>6541</v>
       </c>
       <c r="R16">
         <v>21759</v>

--- a/notebooks/output/Dec_pop_hou_race.xlsx
+++ b/notebooks/output/Dec_pop_hou_race.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,39 @@
   </si>
   <si>
     <t>South Mountain</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
   </si>
 </sst>
 </file>
@@ -473,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1424,8 +1457,8 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17">
-        <v>455000</v>
+      <c r="A17" t="s">
+        <v>34</v>
       </c>
       <c r="B17">
         <v>590149</v>
@@ -1483,8 +1516,8 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>35</v>
       </c>
       <c r="B18">
         <v>131704730</v>
@@ -1539,6 +1572,537 @@
       </c>
       <c r="S18">
         <v>331449281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1639279</v>
+      </c>
+      <c r="C19">
+        <v>1411583</v>
+      </c>
+      <c r="D19">
+        <v>227696</v>
+      </c>
+      <c r="E19">
+        <v>128301</v>
+      </c>
+      <c r="F19">
+        <v>177490</v>
+      </c>
+      <c r="G19">
+        <v>1128741</v>
+      </c>
+      <c r="H19">
+        <v>142530</v>
+      </c>
+      <c r="I19">
+        <v>2240055</v>
+      </c>
+      <c r="J19">
+        <v>3817117</v>
+      </c>
+      <c r="K19">
+        <v>1812827</v>
+      </c>
+      <c r="L19">
+        <v>1643579</v>
+      </c>
+      <c r="M19">
+        <v>169248</v>
+      </c>
+      <c r="N19">
+        <v>197910</v>
+      </c>
+      <c r="O19">
+        <v>245239</v>
+      </c>
+      <c r="P19">
+        <v>1351415</v>
+      </c>
+      <c r="Q19">
+        <v>268433</v>
+      </c>
+      <c r="R19">
+        <v>2357571</v>
+      </c>
+      <c r="S19">
+        <v>4420568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>2844526</v>
+      </c>
+      <c r="C20">
+        <v>2380990</v>
+      </c>
+      <c r="D20">
+        <v>463536</v>
+      </c>
+      <c r="E20">
+        <v>170509</v>
+      </c>
+      <c r="F20">
+        <v>239101</v>
+      </c>
+      <c r="G20">
+        <v>1895149</v>
+      </c>
+      <c r="H20">
+        <v>391611</v>
+      </c>
+      <c r="I20">
+        <v>3695647</v>
+      </c>
+      <c r="J20">
+        <v>6392017</v>
+      </c>
+      <c r="K20">
+        <v>3082000</v>
+      </c>
+      <c r="L20">
+        <v>2705878</v>
+      </c>
+      <c r="M20">
+        <v>376122</v>
+      </c>
+      <c r="N20">
+        <v>248837</v>
+      </c>
+      <c r="O20">
+        <v>317161</v>
+      </c>
+      <c r="P20">
+        <v>2192253</v>
+      </c>
+      <c r="Q20">
+        <v>576704</v>
+      </c>
+      <c r="R20">
+        <v>3816547</v>
+      </c>
+      <c r="S20">
+        <v>7151502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>73462</v>
+      </c>
+      <c r="C21">
+        <v>66000</v>
+      </c>
+      <c r="D21">
+        <v>7462</v>
+      </c>
+      <c r="E21">
+        <v>9035</v>
+      </c>
+      <c r="F21">
+        <v>9021</v>
+      </c>
+      <c r="G21">
+        <v>34092</v>
+      </c>
+      <c r="H21">
+        <v>8860</v>
+      </c>
+      <c r="I21">
+        <v>100711</v>
+      </c>
+      <c r="J21">
+        <v>161719</v>
+      </c>
+      <c r="K21">
+        <v>82626</v>
+      </c>
+      <c r="L21">
+        <v>75530</v>
+      </c>
+      <c r="M21">
+        <v>7096</v>
+      </c>
+      <c r="N21">
+        <v>17169</v>
+      </c>
+      <c r="O21">
+        <v>11393</v>
+      </c>
+      <c r="P21">
+        <v>39698</v>
+      </c>
+      <c r="Q21">
+        <v>14676</v>
+      </c>
+      <c r="R21">
+        <v>97651</v>
+      </c>
+      <c r="S21">
+        <v>180587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>124001</v>
+      </c>
+      <c r="C22">
+        <v>101273</v>
+      </c>
+      <c r="D22">
+        <v>22728</v>
+      </c>
+      <c r="E22">
+        <v>7128</v>
+      </c>
+      <c r="F22">
+        <v>3484</v>
+      </c>
+      <c r="G22">
+        <v>19225</v>
+      </c>
+      <c r="H22">
+        <v>5537</v>
+      </c>
+      <c r="I22">
+        <v>182011</v>
+      </c>
+      <c r="J22">
+        <v>217385</v>
+      </c>
+      <c r="K22">
+        <v>136490</v>
+      </c>
+      <c r="L22">
+        <v>114950</v>
+      </c>
+      <c r="M22">
+        <v>21540</v>
+      </c>
+      <c r="N22">
+        <v>11949</v>
+      </c>
+      <c r="O22">
+        <v>4601</v>
+      </c>
+      <c r="P22">
+        <v>23533</v>
+      </c>
+      <c r="Q22">
+        <v>11768</v>
+      </c>
+      <c r="R22">
+        <v>189510</v>
+      </c>
+      <c r="S22">
+        <v>241361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>90505</v>
+      </c>
+      <c r="C23">
+        <v>79114</v>
+      </c>
+      <c r="D23">
+        <v>11391</v>
+      </c>
+      <c r="E23">
+        <v>8618</v>
+      </c>
+      <c r="F23">
+        <v>12766</v>
+      </c>
+      <c r="G23">
+        <v>80501</v>
+      </c>
+      <c r="H23">
+        <v>7970</v>
+      </c>
+      <c r="I23">
+        <v>116866</v>
+      </c>
+      <c r="J23">
+        <v>226721</v>
+      </c>
+      <c r="K23">
+        <v>91912</v>
+      </c>
+      <c r="L23">
+        <v>86483</v>
+      </c>
+      <c r="M23">
+        <v>5429</v>
+      </c>
+      <c r="N23">
+        <v>11272</v>
+      </c>
+      <c r="O23">
+        <v>17872</v>
+      </c>
+      <c r="P23">
+        <v>97617</v>
+      </c>
+      <c r="Q23">
+        <v>13869</v>
+      </c>
+      <c r="R23">
+        <v>107695</v>
+      </c>
+      <c r="S23">
+        <v>248325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>524246</v>
+      </c>
+      <c r="C24">
+        <v>479642</v>
+      </c>
+      <c r="D24">
+        <v>44604</v>
+      </c>
+      <c r="E24">
+        <v>30596</v>
+      </c>
+      <c r="F24">
+        <v>83365</v>
+      </c>
+      <c r="G24">
+        <v>838952</v>
+      </c>
+      <c r="H24">
+        <v>21388</v>
+      </c>
+      <c r="I24">
+        <v>353106</v>
+      </c>
+      <c r="J24">
+        <v>1327407</v>
+      </c>
+      <c r="K24">
+        <v>592430</v>
+      </c>
+      <c r="L24">
+        <v>538253</v>
+      </c>
+      <c r="M24">
+        <v>54177</v>
+      </c>
+      <c r="N24">
+        <v>45491</v>
+      </c>
+      <c r="O24">
+        <v>93810</v>
+      </c>
+      <c r="P24">
+        <v>916010</v>
+      </c>
+      <c r="Q24">
+        <v>43501</v>
+      </c>
+      <c r="R24">
+        <v>335813</v>
+      </c>
+      <c r="S24">
+        <v>1434625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>516639</v>
+      </c>
+      <c r="C25">
+        <v>458057</v>
+      </c>
+      <c r="D25">
+        <v>58582</v>
+      </c>
+      <c r="E25">
+        <v>33609</v>
+      </c>
+      <c r="F25">
+        <v>294159</v>
+      </c>
+      <c r="G25">
+        <v>507309</v>
+      </c>
+      <c r="H25">
+        <v>17534</v>
+      </c>
+      <c r="I25">
+        <v>345205</v>
+      </c>
+      <c r="J25">
+        <v>1197816</v>
+      </c>
+      <c r="K25">
+        <v>572194</v>
+      </c>
+      <c r="L25">
+        <v>523520</v>
+      </c>
+      <c r="M25">
+        <v>48674</v>
+      </c>
+      <c r="N25">
+        <v>47820</v>
+      </c>
+      <c r="O25">
+        <v>298764</v>
+      </c>
+      <c r="P25">
+        <v>551174</v>
+      </c>
+      <c r="Q25">
+        <v>40228</v>
+      </c>
+      <c r="R25">
+        <v>366393</v>
+      </c>
+      <c r="S25">
+        <v>1304379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>366273</v>
+      </c>
+      <c r="C26">
+        <v>323106</v>
+      </c>
+      <c r="D26">
+        <v>43167</v>
+      </c>
+      <c r="E26">
+        <v>34731</v>
+      </c>
+      <c r="F26">
+        <v>247516</v>
+      </c>
+      <c r="G26">
+        <v>63485</v>
+      </c>
+      <c r="H26">
+        <v>23527</v>
+      </c>
+      <c r="I26">
+        <v>452525</v>
+      </c>
+      <c r="J26">
+        <v>821784</v>
+      </c>
+      <c r="K26">
+        <v>411541</v>
+      </c>
+      <c r="L26">
+        <v>378587</v>
+      </c>
+      <c r="M26">
+        <v>32954</v>
+      </c>
+      <c r="N26">
+        <v>47821</v>
+      </c>
+      <c r="O26">
+        <v>284328</v>
+      </c>
+      <c r="P26">
+        <v>110081</v>
+      </c>
+      <c r="Q26">
+        <v>53586</v>
+      </c>
+      <c r="R26">
+        <v>453795</v>
+      </c>
+      <c r="S26">
+        <v>949611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>384414</v>
+      </c>
+      <c r="C27">
+        <v>336186</v>
+      </c>
+      <c r="D27">
+        <v>48228</v>
+      </c>
+      <c r="E27">
+        <v>17114</v>
+      </c>
+      <c r="F27">
+        <v>224352</v>
+      </c>
+      <c r="G27">
+        <v>77780</v>
+      </c>
+      <c r="H27">
+        <v>22234</v>
+      </c>
+      <c r="I27">
+        <v>488238</v>
+      </c>
+      <c r="J27">
+        <v>829718</v>
+      </c>
+      <c r="K27">
+        <v>402518</v>
+      </c>
+      <c r="L27">
+        <v>365646</v>
+      </c>
+      <c r="M27">
+        <v>36872</v>
+      </c>
+      <c r="N27">
+        <v>37738</v>
+      </c>
+      <c r="O27">
+        <v>246734</v>
+      </c>
+      <c r="P27">
+        <v>116844</v>
+      </c>
+      <c r="Q27">
+        <v>44532</v>
+      </c>
+      <c r="R27">
+        <v>451193</v>
+      </c>
+      <c r="S27">
+        <v>897041</v>
       </c>
     </row>
   </sheetData>
